--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3317.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3317.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.222266746782358</v>
+        <v>1.900809049606323</v>
       </c>
       <c r="B1">
-        <v>1.323792482840148</v>
+        <v>4.947888374328613</v>
       </c>
       <c r="C1">
-        <v>1.522941175842313</v>
+        <v>3.667495250701904</v>
       </c>
       <c r="D1">
-        <v>2.488804766163688</v>
+        <v>0.4506295025348663</v>
       </c>
       <c r="E1">
-        <v>7.20240874817789</v>
+        <v>0.2405924648046494</v>
       </c>
     </row>
   </sheetData>
